--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H2">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>2.724801996698889</v>
+        <v>0.9725011027853334</v>
       </c>
       <c r="R2">
-        <v>24.52321797029</v>
+        <v>8.752509925068001</v>
       </c>
       <c r="S2">
-        <v>0.07197863729076845</v>
+        <v>0.03108566140127806</v>
       </c>
       <c r="T2">
-        <v>0.07197863729076846</v>
+        <v>0.03108566140127806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H3">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>9.249392404748887</v>
+        <v>1.663699272802667</v>
       </c>
       <c r="R3">
-        <v>83.24453164273999</v>
+        <v>14.973293455224</v>
       </c>
       <c r="S3">
-        <v>0.2443328586326561</v>
+        <v>0.0531795718480662</v>
       </c>
       <c r="T3">
-        <v>0.2443328586326562</v>
+        <v>0.05317957184806617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H4">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>2.131898424514444</v>
+        <v>0.3834671190653333</v>
       </c>
       <c r="R4">
-        <v>19.18708582063</v>
+        <v>3.451204071588</v>
       </c>
       <c r="S4">
-        <v>0.056316438267732</v>
+        <v>0.01225739383497623</v>
       </c>
       <c r="T4">
-        <v>0.05631643826773202</v>
+        <v>0.01225739383497623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.675792</v>
       </c>
       <c r="I5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>4.435487568993778</v>
+        <v>8.801058302760888</v>
       </c>
       <c r="R5">
-        <v>39.919388120944</v>
+        <v>79.209524724848</v>
       </c>
       <c r="S5">
-        <v>0.1171682754648231</v>
+        <v>0.2813227847135126</v>
       </c>
       <c r="T5">
-        <v>0.1171682754648231</v>
+        <v>0.2813227847135126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.675792</v>
       </c>
       <c r="I6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>15.05634724347378</v>
@@ -818,10 +818,10 @@
         <v>135.507125191264</v>
       </c>
       <c r="S6">
-        <v>0.3977299482585565</v>
+        <v>0.4812709322490146</v>
       </c>
       <c r="T6">
-        <v>0.3977299482585565</v>
+        <v>0.4812709322490145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.675792</v>
       </c>
       <c r="I7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>3.470347192840888</v>
@@ -880,10 +880,10 @@
         <v>31.233124735568</v>
       </c>
       <c r="S7">
-        <v>0.09167303245122166</v>
+        <v>0.1109284477647943</v>
       </c>
       <c r="T7">
-        <v>0.09167303245122167</v>
+        <v>0.1109284477647943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.057467</v>
       </c>
       <c r="I8">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J8">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N8">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O8">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P8">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q8">
-        <v>0.1521037002965555</v>
+        <v>0.3018097815747778</v>
       </c>
       <c r="R8">
-        <v>1.368933302669</v>
+        <v>2.716288034173</v>
       </c>
       <c r="S8">
-        <v>0.004017986293130048</v>
+        <v>0.009647245284099357</v>
       </c>
       <c r="T8">
-        <v>0.004017986293130049</v>
+        <v>0.009647245284099356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.057467</v>
       </c>
       <c r="I9">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J9">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.861542</v>
       </c>
       <c r="O9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q9">
         <v>0.5163189149015555</v>
@@ -1004,10 +1004,10 @@
         <v>4.646870234114</v>
       </c>
       <c r="S9">
-        <v>0.01363913119084854</v>
+        <v>0.01650395554075573</v>
       </c>
       <c r="T9">
-        <v>0.01363913119084855</v>
+        <v>0.01650395554075572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.057467</v>
       </c>
       <c r="I10">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J10">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.637829</v>
       </c>
       <c r="O10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q10">
         <v>0.1190066799047778</v>
@@ -1066,10 +1066,10 @@
         <v>1.071060119143</v>
       </c>
       <c r="S10">
-        <v>0.00314369215026349</v>
+        <v>0.003804007363503008</v>
       </c>
       <c r="T10">
-        <v>0.003143692150263491</v>
+        <v>0.003804007363503008</v>
       </c>
     </row>
   </sheetData>
